--- a/ky/downloads/data-excel/2.2.3.xlsx
+++ b/ky/downloads/data-excel/2.2.3.xlsx
@@ -8140,10 +8140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8216,6 +8213,9 @@
       <c r="K3" s="8">
         <v>2022</v>
       </c>
+      <c r="L3" s="8">
+        <v>2023</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -8250,6 +8250,9 @@
       </c>
       <c r="K4" s="24">
         <v>1.7</v>
+      </c>
+      <c r="L4" s="24">
+        <v>1.5</v>
       </c>
       <c r="N4" s="26"/>
     </row>
@@ -8271,6 +8274,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8307,6 +8311,9 @@
       <c r="K6" s="25">
         <v>2.2000000000000002</v>
       </c>
+      <c r="L6" s="25">
+        <v>1.9</v>
+      </c>
       <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8342,6 +8349,9 @@
       </c>
       <c r="K7" s="25">
         <v>1.4</v>
+      </c>
+      <c r="L7" s="25">
+        <v>1.2</v>
       </c>
       <c r="N7" s="26"/>
     </row>
@@ -8361,6 +8371,9 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
+      <c r="L8" s="12">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -8396,6 +8409,7 @@
       <c r="K9" s="24">
         <v>41.1</v>
       </c>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -8431,6 +8445,9 @@
       <c r="K10" s="25">
         <v>65.90209110066462</v>
       </c>
+      <c r="L10" s="25">
+        <v>49.967045641786129</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
@@ -8466,6 +8483,9 @@
       <c r="K11" s="25">
         <v>55.941036331149498</v>
       </c>
+      <c r="L11" s="25">
+        <v>43.247229681176961</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -8501,6 +8521,9 @@
       <c r="K12" s="25">
         <v>21.263715474839199</v>
       </c>
+      <c r="L12" s="25">
+        <v>25.20876826722338</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
@@ -8536,6 +8559,9 @@
       <c r="K13" s="25">
         <v>11.351981351981353</v>
       </c>
+      <c r="L13" s="25">
+        <v>15.235173824130879</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
@@ -8571,6 +8597,9 @@
       <c r="K14" s="25">
         <v>32.279274699203526</v>
       </c>
+      <c r="L14" s="25">
+        <v>36.397123311699701</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -8606,6 +8635,9 @@
       <c r="K15" s="25">
         <v>36.890901250539024</v>
       </c>
+      <c r="L15" s="25">
+        <v>32.449725776965266</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -8641,8 +8673,11 @@
       <c r="K16" s="25">
         <v>32.421298573536646</v>
       </c>
+      <c r="L16" s="25">
+        <v>30.303402530401669</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>45</v>
       </c>
@@ -8676,8 +8711,11 @@
       <c r="K17" s="25">
         <v>43.227712137486577</v>
       </c>
+      <c r="L17" s="25">
+        <v>50.286734473057784</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>47</v>
       </c>
@@ -8711,8 +8749,11 @@
       <c r="K18" s="30">
         <v>38.737482570668021</v>
       </c>
+      <c r="L18" s="30">
+        <v>37.055296469020654</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
